--- a/Python/Formula Book/formulas.xlsx
+++ b/Python/Formula Book/formulas.xlsx
@@ -1,34 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Desktop\Krishna-Files\Coding\Python\Formula Book\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Maths" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Maths" sheetId="2" r:id="rId1"/>
+    <sheet name="Chemistry" sheetId="3" r:id="rId2"/>
+    <sheet name="Physics" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+  <si>
+    <t>Formula Name</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Number of alpha particles deflected</t>
+  </si>
+  <si>
+    <t>1/(sin^4(theta/2))</t>
+  </si>
+  <si>
+    <t>Planck's Theory</t>
+  </si>
+  <si>
+    <t>E=nH[mu]=nhc/[lambda]</t>
+  </si>
+  <si>
+    <t>Stopping Potential</t>
+  </si>
+  <si>
+    <t>1/2*mv^2=eV</t>
+  </si>
+  <si>
+    <t>Bohr Radius</t>
+  </si>
+  <si>
+    <t>0.529*n^2/Z</t>
+  </si>
+  <si>
+    <t>Bohr Velocity</t>
+  </si>
+  <si>
+    <t>2.19*10^8*Z/n</t>
+  </si>
+  <si>
+    <t>Bohr RPS</t>
+  </si>
+  <si>
+    <t>6.58*10^8*Z^2/n^3</t>
+  </si>
+  <si>
+    <t>Bohr Potential Energy</t>
+  </si>
+  <si>
+    <t>PE=6.8*Z^2/n^2=2E=KE/-2</t>
+  </si>
+  <si>
+    <t>Bohr Kinetic Energy</t>
+  </si>
+  <si>
+    <t>-13.6*Z^2/n^2</t>
+  </si>
+  <si>
+    <t>Seperation Energy</t>
+  </si>
+  <si>
+    <t>Energy of seperation = Energy of infinity - Energy of exeited</t>
+  </si>
+  <si>
+    <t>Rydberg Equation</t>
+  </si>
+  <si>
+    <t>[mu][bar]=1/[lambda]=[R]*(1/n{1}^2-1/n{2}^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rydberg Constant </t>
+  </si>
+  <si>
+    <t>109678/cm</t>
+  </si>
+  <si>
+    <t>Einstein Relation</t>
+  </si>
+  <si>
+    <t>E=mc^2</t>
+  </si>
+  <si>
+    <t>De-Broglie Equation</t>
+  </si>
+  <si>
+    <t>[lambda]=h/mv=h/mc=h/p=h/sqrt(2mKE)</t>
+  </si>
+  <si>
+    <t>Heisenberg's Uncertainity Principle</t>
+  </si>
+  <si>
+    <t>[delta]x * [delta]p &gt;= h/4[pi]</t>
+  </si>
+  <si>
+    <t>Bohr Bury Rule</t>
+  </si>
+  <si>
+    <t>E=n+l</t>
+  </si>
+  <si>
+    <t>Total Nodes</t>
+  </si>
+  <si>
+    <t>n-1</t>
+  </si>
+  <si>
+    <t>Radial Nodes</t>
+  </si>
+  <si>
+    <t>n-l-1</t>
+  </si>
+  <si>
+    <t>Angular Nodes</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Gravitaional Force</t>
+  </si>
+  <si>
+    <t>F=Gm{1}m{2}/r^2</t>
+  </si>
+  <si>
+    <t>Electromagentic Force</t>
+  </si>
+  <si>
+    <t>F=1/4[pi][epsilon{0}]*q{1}q{2}/r^2</t>
+  </si>
+  <si>
+    <t>Half Distance Formula</t>
+  </si>
+  <si>
+    <t>2V{1}V{2}/V{1}+V{2}</t>
+  </si>
+  <si>
+    <t>Half Time Formula</t>
+  </si>
+  <si>
+    <t>V{1}+V{2}/2</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>22/7=3.14</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +207,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -386,59 +487,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <f>EXP(1)</f>
+        <v>2.7182818284590451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <f>(1+SQRT(5))/2</f>
+        <v>1.6180339887498949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Formula Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>a+b</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>a+b-a+a-b+b</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
